--- a/MECE Report.xlsx
+++ b/MECE Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lavan\Desktop\Capstone_Project1\MECE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673E0D2F-3414-496F-AE2E-1DB0D25303F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636C4000-45C5-476F-8F5E-B534F48F73CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>MECE Report</t>
   </si>
@@ -131,6 +131,27 @@
   </si>
   <si>
     <t>athletes who not move between countries</t>
+  </si>
+  <si>
+    <t>People Participation Analysis</t>
+  </si>
+  <si>
+    <t>Regions</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
+    <t>Distribution of participants across Regions</t>
+  </si>
+  <si>
+    <t>Dividing participants based on age, gender etc.</t>
+  </si>
+  <si>
+    <t>Apperance</t>
+  </si>
+  <si>
+    <t>Examination of Physical attributes like height, weight,etc.</t>
   </si>
 </sst>
 </file>
@@ -245,7 +266,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -518,6 +539,43 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -525,21 +583,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,6 +602,64 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -565,56 +669,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -896,189 +968,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCDA2E7-7BCB-47EE-8466-1DB86456B397}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.88671875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="37.77734375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="38" style="8" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="42.88671875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="37.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="38" style="4" customWidth="1"/>
+    <col min="4" max="4" width="43.109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="23"/>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="21" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="1:4" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="21" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27" t="s">
+    <row r="9" spans="1:4" s="12" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
     </row>
     <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
     </row>
     <row r="14" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
+    <row r="16" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+    </row>
+    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A13:D13"/>
